--- a/Import/cán-bộ.xlsx
+++ b/Import/cán-bộ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017-2018\HK1\DBCL&amp;KTPM\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017-2018\HK2\BTPM\BaoTriPhanMem\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>vqtuan@gmail.com</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>Bộ môn Công nghệ phần mềm</t>
+  </si>
+  <si>
+    <t>Bộ môn Ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Bộ môn Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Bộ môn Hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>Bộ môn Điện điện tử</t>
+  </si>
+  <si>
+    <t>Bộ môn Cơ khí</t>
   </si>
 </sst>
 </file>
@@ -484,15 +499,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,7 +541,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -543,7 +558,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -577,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -594,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -611,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -631,7 +646,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +663,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -679,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
